--- a/Intro2ResSim/WellTest/drawdownDataset_exercise.xlsx
+++ b/Intro2ResSim/WellTest/drawdownDataset_exercise.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qu365-my.sharepoint.com/personal/hirose_taichi_599_s_kyushu-u_ac_jp/Documents/エネルギー資源工学特論/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qu365-my.sharepoint.com/personal/hirose_taichi_599_s_kyushu-u_ac_jp/Documents/workspace/Intro_to_NA2022/Intro2ResSim/WellTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{868959C1-0531-4519-AAB9-126B150D1BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{868959C1-0531-4519-AAB9-126B150D1BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A93A194C-736E-4144-BC69-DAFAC5E792F2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -97,10 +108,6 @@
     <t>Skin</t>
   </si>
   <si>
-    <t>pw1hr</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Case1</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -126,11 +133,15 @@
     <t>Case 0</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>Pwf1hr -&gt; Pwf@log(t)=0</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2345,10 +2356,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="accent2"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -3813,15 +3821,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>518255</xdr:colOff>
+      <xdr:colOff>518254</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>168020</xdr:rowOff>
+      <xdr:rowOff>168019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>611020</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>223867</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160129</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>193260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3851,7 +3859,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>274350</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>75330</xdr:rowOff>
+      <xdr:rowOff>11043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -3885,15 +3893,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>298173</xdr:colOff>
+      <xdr:colOff>314738</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>176696</xdr:rowOff>
+      <xdr:rowOff>110435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>467573</xdr:colOff>
+      <xdr:colOff>141790</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>174224</xdr:rowOff>
+      <xdr:rowOff>107963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3915,7 +3923,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3368260" y="176696"/>
+          <a:off x="3384825" y="110435"/>
           <a:ext cx="4697226" cy="450311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4229,11 +4237,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4241,7 +4249,7 @@
     <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="7.08203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
     <col min="6" max="7" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -4368,21 +4376,21 @@
         <v>3899.2213457647999</v>
       </c>
       <c r="C12">
-        <f>LOG10(A12)</f>
+        <f t="shared" ref="C12:C43" si="0">LOG10(A12)</f>
         <v>-1.4177192533314065</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="I12" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
@@ -4393,11 +4401,11 @@
         <v>3888.7384699540698</v>
       </c>
       <c r="C13">
-        <f>LOG10(A13)</f>
+        <f t="shared" si="0"/>
         <v>-0.9358152231003638</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1">
         <v>94.024000000000001</v>
@@ -4413,7 +4421,7 @@
         <v>3877.0514163810799</v>
       </c>
       <c r="C14">
-        <f>LOG10(A14)</f>
+        <f t="shared" si="0"/>
         <v>-0.76012052305512268</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -4434,7 +4442,7 @@
         <v>3865.56938989543</v>
       </c>
       <c r="C15">
-        <f>LOG10(A15)</f>
+        <f t="shared" si="0"/>
         <v>-0.63538020182313271</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -4455,7 +4463,7 @@
         <v>3853.6771393700801</v>
       </c>
       <c r="C16">
-        <f>LOG10(A16)</f>
+        <f t="shared" si="0"/>
         <v>-0.51059033625858441</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -4476,11 +4484,11 @@
         <v>3842.4001399717499</v>
       </c>
       <c r="C17">
-        <f>LOG10(A17)</f>
+        <f t="shared" si="0"/>
         <v>-0.436027253639932</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F17" s="18">
         <v>3755</v>
@@ -4497,7 +4505,7 @@
         <v>3830.9179436210702</v>
       </c>
       <c r="C18">
-        <f>LOG10(A18)</f>
+        <f t="shared" si="0"/>
         <v>-0.35311845321484286</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -4518,7 +4526,7 @@
         <v>3819.4359171354099</v>
       </c>
       <c r="C19">
-        <f>LOG10(A19)</f>
+        <f t="shared" si="0"/>
         <v>-0.29990880866052499</v>
       </c>
     </row>
@@ -4530,7 +4538,7 @@
         <v>3796.47220389415</v>
       </c>
       <c r="C20">
-        <f>LOG10(A20)</f>
+        <f t="shared" si="0"/>
         <v>-0.23779756942583166</v>
       </c>
     </row>
@@ -4542,7 +4550,7 @@
         <v>3773.0984364782198</v>
       </c>
       <c r="C21">
-        <f>LOG10(A21)</f>
+        <f t="shared" si="0"/>
         <v>-0.18346794905603947</v>
       </c>
       <c r="E21" s="6"/>
@@ -4555,7 +4563,7 @@
         <v>3750.3395804592601</v>
       </c>
       <c r="C22">
-        <f>LOG10(A22)</f>
+        <f t="shared" si="0"/>
         <v>-0.12390922419557798</v>
       </c>
     </row>
@@ -4567,7 +4575,7 @@
         <v>3727.37603708303</v>
       </c>
       <c r="C23">
-        <f>LOG10(A23)</f>
+        <f t="shared" si="0"/>
         <v>-9.1737638774136418E-2</v>
       </c>
     </row>
@@ -4579,7 +4587,7 @@
         <v>3716.0992075497302</v>
       </c>
       <c r="C24">
-        <f>LOG10(A24)</f>
+        <f t="shared" si="0"/>
         <v>-7.154199256923241E-2</v>
       </c>
     </row>
@@ -4591,7 +4599,7 @@
         <v>3704.2069570243798</v>
       </c>
       <c r="C25">
-        <f>LOG10(A25)</f>
+        <f t="shared" si="0"/>
         <v>-3.3766976807677256E-2</v>
       </c>
     </row>
@@ -4603,7 +4611,7 @@
         <v>3681.4477612753699</v>
       </c>
       <c r="C26">
-        <f>LOG10(A26)</f>
+        <f t="shared" si="0"/>
         <v>2.5335511422242014E-2</v>
       </c>
     </row>
@@ -4615,7 +4623,7 @@
         <v>3669.7603679723302</v>
       </c>
       <c r="C27">
-        <f>LOG10(A27)</f>
+        <f t="shared" si="0"/>
         <v>6.3113235431987019E-2</v>
       </c>
     </row>
@@ -4627,7 +4635,7 @@
         <v>3647.0004927632099</v>
       </c>
       <c r="C28">
-        <f>LOG10(A28)</f>
+        <f t="shared" si="0"/>
         <v>0.13620186465924958</v>
       </c>
     </row>
@@ -4639,7 +4647,7 @@
         <v>3635.3119104049802</v>
       </c>
       <c r="C29">
-        <f>LOG10(A29)</f>
+        <f t="shared" si="0"/>
         <v>0.20400704285771629</v>
       </c>
     </row>
@@ -4651,7 +4659,7 @@
         <v>3623.82852499911</v>
       </c>
       <c r="C30">
-        <f>LOG10(A30)</f>
+        <f t="shared" si="0"/>
         <v>0.25804671902286908</v>
       </c>
     </row>
@@ -4663,7 +4671,7 @@
         <v>3612.7531553875801</v>
       </c>
       <c r="C31">
-        <f>LOG10(A31)</f>
+        <f t="shared" si="0"/>
         <v>0.35308976762640382</v>
       </c>
     </row>
@@ -4675,7 +4683,7 @@
         <v>3606.8041424194498</v>
       </c>
       <c r="C32">
-        <f>LOG10(A32)</f>
+        <f t="shared" si="0"/>
         <v>0.41843427254119486</v>
       </c>
     </row>
@@ -4687,7 +4695,7 @@
         <v>3600.6485735787401</v>
       </c>
       <c r="C33">
-        <f>LOG10(A33)</f>
+        <f t="shared" si="0"/>
         <v>0.49973023172956971</v>
       </c>
     </row>
@@ -4699,7 +4707,7 @@
         <v>3595.6429360000002</v>
       </c>
       <c r="C34">
-        <f>LOG10(A34)</f>
+        <f t="shared" si="0"/>
         <v>0.64159613209308519</v>
       </c>
     </row>
@@ -4711,7 +4719,7 @@
         <v>3590.9939550512599</v>
       </c>
       <c r="C35">
-        <f>LOG10(A35)</f>
+        <f t="shared" si="0"/>
         <v>0.71943796767693147</v>
       </c>
     </row>
@@ -4723,7 +4731,7 @@
         <v>3590.0940000000001</v>
       </c>
       <c r="C36">
-        <f>LOG10(A36)</f>
+        <f t="shared" si="0"/>
         <v>0.7440808704232057</v>
       </c>
     </row>
@@ -4735,7 +4743,7 @@
         <v>3589.3481328067201</v>
       </c>
       <c r="C37">
-        <f>LOG10(A37)</f>
+        <f t="shared" si="0"/>
         <v>0.76916605726310427</v>
       </c>
     </row>
@@ -4747,7 +4755,7 @@
         <v>3586.0500334466301</v>
       </c>
       <c r="C38">
-        <f>LOG10(A38)</f>
+        <f t="shared" si="0"/>
         <v>0.89658356158155983</v>
       </c>
     </row>
@@ -4759,7 +4767,7 @@
         <v>3583.9882117514899</v>
       </c>
       <c r="C39">
-        <f>LOG10(A39)</f>
+        <f t="shared" si="0"/>
         <v>0.96337613903144814</v>
       </c>
     </row>
@@ -4771,7 +4779,7 @@
         <v>3582.7463285406502</v>
       </c>
       <c r="C40">
-        <f>LOG10(A40)</f>
+        <f t="shared" si="0"/>
         <v>1.0220485073136609</v>
       </c>
     </row>
@@ -4783,7 +4791,7 @@
         <v>3582.11952659181</v>
       </c>
       <c r="C41">
-        <f>LOG10(A41)</f>
+        <f t="shared" si="0"/>
         <v>1.0737295103015514</v>
       </c>
     </row>
@@ -4795,7 +4803,7 @@
         <v>3581.08318006338</v>
       </c>
       <c r="C42">
-        <f>LOG10(A42)</f>
+        <f t="shared" si="0"/>
         <v>1.1180003790248116</v>
       </c>
     </row>
@@ -4807,7 +4815,7 @@
         <v>3580.2516907572599</v>
       </c>
       <c r="C43">
-        <f>LOG10(A43)</f>
+        <f t="shared" si="0"/>
         <v>1.1587539239780851</v>
       </c>
     </row>
@@ -4819,7 +4827,7 @@
         <v>3579.41986172108</v>
       </c>
       <c r="C44">
-        <f>LOG10(A44)</f>
+        <f t="shared" ref="C44:C78" si="1">LOG10(A44)</f>
         <v>1.1970735748734658</v>
       </c>
     </row>
@@ -4831,7 +4839,7 @@
         <v>3578.1664276884198</v>
       </c>
       <c r="C45">
-        <f>LOG10(A45)</f>
+        <f t="shared" si="1"/>
         <v>1.2643986355253354</v>
       </c>
     </row>
@@ -4843,7 +4851,7 @@
         <v>3577.3228779654</v>
       </c>
       <c r="C46">
-        <f>LOG10(A46)</f>
+        <f t="shared" si="1"/>
         <v>1.323071951483421</v>
       </c>
     </row>
@@ -4855,7 +4863,7 @@
         <v>3576.0696137977702</v>
       </c>
       <c r="C47">
-        <f>LOG10(A47)</f>
+        <f t="shared" si="1"/>
         <v>1.3740469543411242</v>
       </c>
     </row>
@@ -4867,7 +4875,7 @@
         <v>3575.4314308921298</v>
       </c>
       <c r="C48">
-        <f>LOG10(A48)</f>
+        <f t="shared" si="1"/>
         <v>1.4196623769670189</v>
       </c>
     </row>
@@ -4879,7 +4887,7 @@
         <v>3574.79307812146</v>
       </c>
       <c r="C49">
-        <f>LOG10(A49)</f>
+        <f t="shared" si="1"/>
         <v>1.4612282201568725</v>
       </c>
     </row>
@@ -4891,7 +4899,7 @@
         <v>3574.1547253508002</v>
       </c>
       <c r="C50">
-        <f>LOG10(A50)</f>
+        <f t="shared" si="1"/>
         <v>1.4991610266857338</v>
       </c>
     </row>
@@ -4903,7 +4911,7 @@
         <v>3573.3113454927998</v>
       </c>
       <c r="C51">
-        <f>LOG10(A51)</f>
+        <f t="shared" si="1"/>
         <v>1.5340451495383294</v>
       </c>
     </row>
@@ -4915,7 +4923,7 @@
         <v>3572.67299272214</v>
       </c>
       <c r="C52">
-        <f>LOG10(A52)</f>
+        <f t="shared" si="1"/>
         <v>1.5663343912832586</v>
       </c>
     </row>
@@ -4927,7 +4935,7 @@
         <v>3572.44520372121</v>
       </c>
       <c r="C53">
-        <f>LOG10(A53)</f>
+        <f t="shared" si="1"/>
         <v>1.5957518876547705</v>
       </c>
     </row>
@@ -4939,7 +4947,7 @@
         <v>3571.8066810855198</v>
       </c>
       <c r="C54">
-        <f>LOG10(A54)</f>
+        <f t="shared" si="1"/>
         <v>1.6240986713632313</v>
       </c>
     </row>
@@ -4951,7 +4959,7 @@
         <v>3571.16832831486</v>
       </c>
       <c r="C55">
-        <f>LOG10(A55)</f>
+        <f t="shared" si="1"/>
         <v>1.650520984428318</v>
       </c>
     </row>
@@ -4963,7 +4971,7 @@
         <v>3570.53014540922</v>
       </c>
       <c r="C56">
-        <f>LOG10(A56)</f>
+        <f t="shared" si="1"/>
         <v>1.6752508298330693</v>
       </c>
     </row>
@@ -4975,7 +4983,7 @@
         <v>3570.5065341704999</v>
       </c>
       <c r="C57">
-        <f>LOG10(A57)</f>
+        <f t="shared" si="1"/>
         <v>1.6991502055709689</v>
       </c>
     </row>
@@ -4987,7 +4995,7 @@
         <v>3570.27857530455</v>
       </c>
       <c r="C58">
-        <f>LOG10(A58)</f>
+        <f t="shared" si="1"/>
         <v>1.7211670813508761</v>
       </c>
     </row>
@@ -4999,7 +5007,7 @@
         <v>3569.8454194862402</v>
       </c>
       <c r="C59">
-        <f>LOG10(A59)</f>
+        <f t="shared" si="1"/>
         <v>1.7422729498894907</v>
       </c>
     </row>
@@ -5011,7 +5019,7 @@
         <v>3569.6171208902401</v>
       </c>
       <c r="C60">
-        <f>LOG10(A60)</f>
+        <f t="shared" si="1"/>
         <v>1.7625450714696151</v>
       </c>
     </row>
@@ -5023,7 +5031,7 @@
         <v>3569.3889921592699</v>
       </c>
       <c r="C61">
-        <f>LOG10(A61)</f>
+        <f t="shared" si="1"/>
         <v>1.781774688058182</v>
       </c>
     </row>
@@ -5035,7 +5043,7 @@
         <v>3569.1606935632599</v>
       </c>
       <c r="C62">
-        <f>LOG10(A62)</f>
+        <f t="shared" si="1"/>
         <v>1.8003213861129368</v>
       </c>
     </row>
@@ -5047,7 +5055,7 @@
         <v>3569.1374220545899</v>
       </c>
       <c r="C63">
-        <f>LOG10(A63)</f>
+        <f t="shared" si="1"/>
         <v>1.8181083738997561</v>
       </c>
     </row>
@@ -5059,7 +5067,7 @@
         <v>3568.9092933236202</v>
       </c>
       <c r="C64">
-        <f>LOG10(A64)</f>
+        <f t="shared" si="1"/>
         <v>1.8350731298942047</v>
       </c>
     </row>
@@ -5071,7 +5079,7 @@
         <v>3568.4757977752602</v>
       </c>
       <c r="C65">
-        <f>LOG10(A65)</f>
+        <f t="shared" si="1"/>
         <v>1.8516356138104018</v>
       </c>
     </row>
@@ -5083,7 +5091,7 @@
         <v>3568.0429816870101</v>
       </c>
       <c r="C66">
-        <f>LOG10(A66)</f>
+        <f t="shared" si="1"/>
         <v>1.8671353161344602</v>
       </c>
     </row>
@@ -5095,7 +5103,7 @@
         <v>3567.8145132259801</v>
       </c>
       <c r="C67">
-        <f>LOG10(A67)</f>
+        <f t="shared" si="1"/>
         <v>1.882539754108451</v>
       </c>
     </row>
@@ -5107,7 +5115,7 @@
         <v>3568.2011260269401</v>
       </c>
       <c r="C68">
-        <f>LOG10(A68)</f>
+        <f t="shared" si="1"/>
         <v>1.8974164614089846</v>
       </c>
     </row>
@@ -5119,7 +5127,7 @@
         <v>3567.5629431213101</v>
       </c>
       <c r="C69">
-        <f>LOG10(A69)</f>
+        <f t="shared" si="1"/>
         <v>1.9115953049498868</v>
       </c>
     </row>
@@ -5131,7 +5139,7 @@
         <v>3567.74452883494</v>
       </c>
       <c r="C70">
-        <f>LOG10(A70)</f>
+        <f t="shared" si="1"/>
         <v>1.9255245512083061</v>
       </c>
     </row>
@@ -5143,7 +5151,7 @@
         <v>3567.51673983402</v>
       </c>
       <c r="C71">
-        <f>LOG10(A71)</f>
+        <f t="shared" si="1"/>
         <v>1.9386355366548031</v>
       </c>
     </row>
@@ -5155,7 +5163,7 @@
         <v>3567.4936381903799</v>
       </c>
       <c r="C72">
-        <f>LOG10(A72)</f>
+        <f t="shared" si="1"/>
         <v>1.9515494388696601</v>
       </c>
     </row>
@@ -5167,7 +5175,7 @@
         <v>3566.8552854197101</v>
       </c>
       <c r="C73">
-        <f>LOG10(A73)</f>
+        <f t="shared" si="1"/>
         <v>1.9641812890881136</v>
       </c>
     </row>
@@ -5179,7 +5187,7 @@
         <v>3566.8318440460198</v>
       </c>
       <c r="C74">
-        <f>LOG10(A74)</f>
+        <f t="shared" si="1"/>
         <v>1.9765444248416268</v>
       </c>
     </row>
@@ -5191,7 +5199,7 @@
         <v>3566.8085725373498</v>
       </c>
       <c r="C75">
-        <f>LOG10(A75)</f>
+        <f t="shared" si="1"/>
         <v>1.9884794146935807</v>
       </c>
     </row>
@@ -5203,7 +5211,7 @@
         <v>3566.7854708937002</v>
       </c>
       <c r="C76">
-        <f>LOG10(A76)</f>
+        <f t="shared" si="1"/>
         <v>2.0000114978637922</v>
       </c>
     </row>
@@ -5215,7 +5223,7 @@
         <v>3566.5571722977002</v>
       </c>
       <c r="C77">
-        <f>LOG10(A77)</f>
+        <f t="shared" si="1"/>
         <v>2.011326801348063</v>
       </c>
     </row>
@@ -5227,7 +5235,7 @@
         <v>3565.71413216976</v>
       </c>
       <c r="C78">
-        <f>LOG10(A78)</f>
+        <f t="shared" si="1"/>
         <v>2.0221957671720872</v>
       </c>
     </row>

--- a/Intro2ResSim/WellTest/drawdownDataset_exercise.xlsx
+++ b/Intro2ResSim/WellTest/drawdownDataset_exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qu365-my.sharepoint.com/personal/hirose_taichi_599_s_kyushu-u_ac_jp/Documents/workspace/Intro_to_NA2022/Intro2ResSim/WellTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:40009_{868959C1-0531-4519-AAB9-126B150D1BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A93A194C-736E-4144-BC69-DAFAC5E792F2}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:40009_{868959C1-0531-4519-AAB9-126B150D1BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{340E1260-03C4-4C2A-B4EF-DB836C030306}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="19140" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,8 +506,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -623,29 +629,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -726,6 +712,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -855,7 +924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,53 +934,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1077,7 +1161,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$A$12:$A$78</c:f>
+              <c:f>data!$A$13:$A$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -1287,7 +1371,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$B$12:$B$78</c:f>
+              <c:f>data!$B$13:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -1825,7 +1909,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12058048383912413"/>
+          <c:y val="7.931033503932873E-2"/>
+          <c:w val="0.84234212257087604"/>
+          <c:h val="0.65822071208985855"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1854,7 +1948,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$C$12:$C$78</c:f>
+              <c:f>data!$C$13:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -2064,7 +2158,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$B$12:$B$78</c:f>
+              <c:f>data!$B$13:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="67"/>
@@ -2370,7 +2464,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(data!$C$21,data!$C$78)</c:f>
+              <c:f>(data!$C$22,data!$C$79)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2385,7 +2479,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(data!$B$21,data!$B$78)</c:f>
+              <c:f>(data!$B$22,data!$B$79)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2464,6 +2558,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.4477974969183196"/>
+              <c:y val="0.83990098981796091"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3820,16 +3922,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>518254</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>168019</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10254</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>118322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>160129</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>193260</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>336826</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>143565</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3857,15 +3959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>274350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>11043</xdr:rowOff>
+      <xdr:colOff>528350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>460038</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171173</xdr:rowOff>
+      <xdr:colOff>408608</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138045</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3890,52 +3992,590 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314738</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>110435</xdr:rowOff>
+      <xdr:colOff>530085</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33129</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>141790</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>107963</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358913</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160129</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75D41AD-A4E6-4947-81A9-5BBCBB4A9E96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="31742" t="9417" b="80013"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3384825" y="110435"/>
-          <a:ext cx="4697226" cy="450311"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="正方形/長方形 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94263541-6A0C-46F7-90C0-82439161FAA8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3600172" y="259520"/>
+              <a:ext cx="5361611" cy="579783"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="28575"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="center"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑤𝑓</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−162.6</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑞𝐵</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘h</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:func>
+                          <m:funcPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:funcPr>
+                          <m:fName>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>log</m:t>
+                            </m:r>
+                          </m:fName>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑡</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:func>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                            <a:solidFill>
+                              <a:sysClr val="windowText" lastClr="000000"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:func>
+                          <m:funcPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:funcPr>
+                          <m:fName>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>log</m:t>
+                            </m:r>
+                          </m:fName>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:sysClr val="windowText" lastClr="000000"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:sysClr val="windowText" lastClr="000000"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑘</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:sysClr val="windowText" lastClr="000000"/>
+                                    </a:solidFill>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝜙𝜇</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:sysClr val="windowText" lastClr="000000"/>
+                                        </a:solidFill>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:sysClr val="windowText" lastClr="000000"/>
+                                        </a:solidFill>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑐</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:sysClr val="windowText" lastClr="000000"/>
+                                        </a:solidFill>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑡</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:sSup>
+                                  <m:sSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:sysClr val="windowText" lastClr="000000"/>
+                                        </a:solidFill>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSupPr>
+                                  <m:e>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:sysClr val="windowText" lastClr="000000"/>
+                                            </a:solidFill>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:sysClr val="windowText" lastClr="000000"/>
+                                            </a:solidFill>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑟</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:sysClr val="windowText" lastClr="000000"/>
+                                            </a:solidFill>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑤</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                  </m:e>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:sysClr val="windowText" lastClr="000000"/>
+                                        </a:solidFill>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSup>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−3.23+0.87</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1">
+                                <a:solidFill>
+                                  <a:sysClr val="windowText" lastClr="000000"/>
+                                </a:solidFill>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:func>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="正方形/長方形 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94263541-6A0C-46F7-90C0-82439161FAA8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3600172" y="259520"/>
+              <a:ext cx="5361611" cy="579783"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="28575"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑃_𝑤𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=𝑃_𝑖−162.6 𝑞𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>/𝑘ℎ (log⁡𝑡+log⁡〖𝑘/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜙𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐_𝑡 〖𝑟_𝑤〗^2 )−3.23+0.87𝑠〗 )</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4238,11 +4878,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A2:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4253,995 +4891,996 @@
     <col min="6" max="7" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C2" s="17">
         <v>3900</v>
       </c>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10">
-        <v>250</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="11" t="s">
+      <c r="C3" s="18">
+        <v>500</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C4" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8" t="s">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="11" t="s">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C6" s="19">
         <v>20</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C7" s="18">
         <v>0.2</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="11" t="s">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C8" s="20">
         <v>1.5E-5</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C9" s="18">
         <v>0.33</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="11" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
+    <row r="12" spans="1:9" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B12" s="10">
         <v>3900</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12">
+    <row r="13" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="9">
         <v>3.8219125589852E-2</v>
       </c>
-      <c r="B12">
+      <c r="B13" s="10">
         <v>3899.2213457647999</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:C43" si="0">LOG10(A12)</f>
+      <c r="C13">
+        <f t="shared" ref="C13:C44" si="0">LOG10(A13)</f>
         <v>-1.4177192533314065</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
+    <row r="14" spans="1:9" ht="18.5" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9">
         <v>0.11592704797195599</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="10">
         <v>3888.7384699540698</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>-0.9358152231003638</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F14" s="1">
         <v>94.024000000000001</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="9">
         <v>0.173731863057634</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="10">
         <v>3877.0514163810799</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>-0.76012052305512268</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2">
-        <f>162.6*$C$2*$C$3*$C$4/$C$5</f>
-        <v>2235.75</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15">
+      <c r="F15" s="2">
+        <f>162.6*$C$3*$C$4*$C$5/$C$6</f>
+        <v>4471.5</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9">
         <v>0.231536678143312</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="10">
         <v>3865.56938989543</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>-0.63538020182313271</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="2">
-        <f>F$14/F$13</f>
-        <v>23.778503360844038</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16">
+      <c r="F16" s="2">
+        <f>F$15/F$14</f>
+        <v>47.557006721688076</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="9">
         <v>0.30860976492421599</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="10">
         <v>3853.6771393700801</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>-0.51059033625858441</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="2">
-        <f>LOG10(F$15/($C$6*$C$4*$C$7*$C$8^2))</f>
-        <v>7.8620353818046445</v>
-      </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17">
+      <c r="F17" s="2">
+        <f>LOG10(F$16/($C$7*$C$5*$C$8*$C$9^2))</f>
+        <v>8.1630653774686248</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="9">
         <v>0.36641458000989502</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="10">
         <v>3842.4001399717499</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>-0.436027253639932</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F18" s="7">
         <v>3755</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18">
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="9">
         <v>0.44348766679079699</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="10">
         <v>3830.9179436210702</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>-0.35311845321484286</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="2">
-        <f>(($B$11-F$17)/F$13-F$16+3.23)/0.87</f>
-        <v>-3.5515815323600415</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
+      <c r="F19" s="2">
+        <f>(($B$12-F$18)/F$14-F$17+3.23)/0.87</f>
+        <v>-3.8975930216289845</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9">
         <v>0.50129248187647502</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="10">
         <v>3819.4359171354099</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <f t="shared" si="0"/>
         <v>-0.29990880866052499</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9">
         <v>0.57836556865737998</v>
       </c>
-      <c r="B20">
+      <c r="B21" s="10">
         <v>3796.47220389415</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <f t="shared" si="0"/>
         <v>-0.23779756942583166</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="9">
         <v>0.65543865543828495</v>
       </c>
-      <c r="B21">
+      <c r="B22" s="10">
         <v>3773.0984364782198</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <f t="shared" si="0"/>
         <v>-0.18346794905603947</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="9">
         <v>0.75178001391441396</v>
       </c>
-      <c r="B22">
+      <c r="B23" s="10">
         <v>3750.3395804592601</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <f t="shared" si="0"/>
         <v>-0.12390922419557798</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9">
         <v>0.80958482900008999</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="10">
         <v>3727.37603708303</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <f t="shared" si="0"/>
         <v>-9.1737638774136418E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="9">
         <v>0.84812137239054397</v>
       </c>
-      <c r="B24">
+      <c r="B25" s="10">
         <v>3716.0992075497302</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <f t="shared" si="0"/>
         <v>-7.154199256923241E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9">
         <v>0.92519445917144805</v>
       </c>
-      <c r="B25">
+      <c r="B26" s="10">
         <v>3704.2069570243798</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <f t="shared" si="0"/>
         <v>-3.3766976807677256E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="9">
         <v>1.06007236103803</v>
       </c>
-      <c r="B26">
+      <c r="B27" s="10">
         <v>3681.4477612753699</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <f t="shared" si="0"/>
         <v>2.5335511422242014E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="9">
         <v>1.15641371951415</v>
       </c>
-      <c r="B27">
+      <c r="B28" s="10">
         <v>3669.7603679723302</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <f t="shared" si="0"/>
         <v>6.3113235431987019E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="9">
         <v>1.3683647081616399</v>
       </c>
-      <c r="B28">
+      <c r="B29" s="10">
         <v>3647.0004927632099</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <f t="shared" si="0"/>
         <v>0.13620186465924958</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="9">
         <v>1.59958396850435</v>
       </c>
-      <c r="B29">
+      <c r="B30" s="10">
         <v>3635.3119104049802</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <f t="shared" si="0"/>
         <v>0.20400704285771629</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="9">
         <v>1.81153495715184</v>
       </c>
-      <c r="B30">
+      <c r="B31" s="10">
         <v>3623.82852499911</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <f t="shared" si="0"/>
         <v>0.25804671902286908</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="9">
         <v>2.2547052061420398</v>
       </c>
-      <c r="B31">
+      <c r="B32" s="10">
         <v>3612.7531553875801</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <f t="shared" si="0"/>
         <v>0.35308976762640382</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="9">
         <v>2.6208023683513302</v>
       </c>
-      <c r="B32">
+      <c r="B33" s="10">
         <v>3606.8041424194498</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <f t="shared" si="0"/>
         <v>0.41843427254119486</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="9">
         <v>3.1603139758176599</v>
       </c>
-      <c r="B33">
+      <c r="B34" s="10">
         <v>3600.6485735787401</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <f t="shared" si="0"/>
         <v>0.49973023172956971</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="9">
         <v>4.3812308</v>
       </c>
-      <c r="B34">
+      <c r="B35" s="10">
         <v>3595.6429360000002</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <f t="shared" si="0"/>
         <v>0.64159613209308519</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="9">
         <v>5.2412873189020699</v>
       </c>
-      <c r="B35">
+      <c r="B36" s="10">
         <v>3590.9939550512599</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <f t="shared" si="0"/>
         <v>0.71943796767693147</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="9">
         <v>5.5472900000000003</v>
       </c>
-      <c r="B36">
+      <c r="B37" s="10">
         <v>3590.0940000000001</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <f t="shared" si="0"/>
         <v>0.7440808704232057</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="9">
         <v>5.87714028484453</v>
       </c>
-      <c r="B37">
+      <c r="B38" s="10">
         <v>3589.3481328067201</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <f t="shared" si="0"/>
         <v>0.76916605726310427</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="9">
         <v>7.88104054114803</v>
       </c>
-      <c r="B38">
+      <c r="B39" s="10">
         <v>3586.0500334466301</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <f t="shared" si="0"/>
         <v>0.89658356158155983</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="9">
         <v>9.1912830164233998</v>
       </c>
-      <c r="B39">
+      <c r="B40" s="10">
         <v>3583.9882117514899</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <f t="shared" si="0"/>
         <v>0.96337613903144814</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="9">
         <v>10.520793763394</v>
       </c>
-      <c r="B40">
+      <c r="B41" s="10">
         <v>3582.7463285406502</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <f t="shared" si="0"/>
         <v>1.0220485073136609</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="9">
         <v>11.8503045103645</v>
       </c>
-      <c r="B41">
+      <c r="B42" s="10">
         <v>3582.11952659181</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <f t="shared" si="0"/>
         <v>1.0737295103015514</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="9">
         <v>13.122010442249501</v>
       </c>
-      <c r="B42">
+      <c r="B43" s="10">
         <v>3581.08318006338</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <f t="shared" si="0"/>
         <v>1.1180003790248116</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="9">
         <v>14.412984645829599</v>
       </c>
-      <c r="B43">
+      <c r="B44" s="10">
         <v>3580.2516907572599</v>
       </c>
-      <c r="C43">
+      <c r="C44">
         <f t="shared" si="0"/>
         <v>1.1587539239780851</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="9">
         <v>15.742495392800199</v>
       </c>
-      <c r="B44">
+      <c r="B45" s="10">
         <v>3579.41986172108</v>
       </c>
-      <c r="C44">
-        <f t="shared" ref="C44:C78" si="1">LOG10(A44)</f>
+      <c r="C45">
+        <f t="shared" ref="C45:C79" si="1">LOG10(A45)</f>
         <v>1.1970735748734658</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="9">
         <v>18.382248615046201</v>
       </c>
-      <c r="B45">
+      <c r="B46" s="10">
         <v>3578.1664276884198</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <f t="shared" si="1"/>
         <v>1.2643986355253354</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="9">
         <v>21.041270108987302</v>
       </c>
-      <c r="B46">
+      <c r="B47" s="10">
         <v>3577.3228779654</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <f t="shared" si="1"/>
         <v>1.323071951483421</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="9">
         <v>23.661755059538098</v>
       </c>
-      <c r="B47">
+      <c r="B48" s="10">
         <v>3576.0696137977702</v>
       </c>
-      <c r="C47">
+      <c r="C48">
         <f t="shared" si="1"/>
         <v>1.3740469543411242</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="9">
         <v>26.282240010088799</v>
       </c>
-      <c r="B48">
+      <c r="B49" s="10">
         <v>3575.4314308921298</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <f t="shared" si="1"/>
         <v>1.4196623769670189</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="9">
         <v>28.921993232334799</v>
       </c>
-      <c r="B49">
+      <c r="B50" s="10">
         <v>3574.79307812146</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <f t="shared" si="1"/>
         <v>1.4612282201568725</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="9">
         <v>31.5617464545807</v>
       </c>
-      <c r="B50">
+      <c r="B51" s="10">
         <v>3574.1547253508002</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <f t="shared" si="1"/>
         <v>1.4991610266857338</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="9">
         <v>34.2014996768267</v>
       </c>
-      <c r="B51">
+      <c r="B52" s="10">
         <v>3573.3113454927998</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <f t="shared" si="1"/>
         <v>1.5340451495383294</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="9">
         <v>36.8412528990727</v>
       </c>
-      <c r="B52">
+      <c r="B53" s="10">
         <v>3572.67299272214</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <f t="shared" si="1"/>
         <v>1.5663343912832586</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="9">
         <v>39.423201306232997</v>
       </c>
-      <c r="B53">
+      <c r="B54" s="10">
         <v>3572.44520372121</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <f t="shared" si="1"/>
         <v>1.5957518876547705</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="9">
         <v>42.082222800174101</v>
       </c>
-      <c r="B54">
+      <c r="B55" s="10">
         <v>3571.8066810855198</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <f t="shared" si="1"/>
         <v>1.6240986713632313</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="9">
         <v>44.721976022420101</v>
       </c>
-      <c r="B55">
+      <c r="B56" s="10">
         <v>3571.16832831486</v>
       </c>
-      <c r="C55">
+      <c r="C56">
         <f t="shared" si="1"/>
         <v>1.650520984428318</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="9">
         <v>47.342460972970898</v>
       </c>
-      <c r="B56">
+      <c r="B57" s="10">
         <v>3570.53014540922</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <f t="shared" si="1"/>
         <v>1.6752508298330693</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="9">
         <v>50.020750738607298</v>
       </c>
-      <c r="B57">
+      <c r="B58" s="10">
         <v>3570.5065341704999</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <f t="shared" si="1"/>
         <v>1.6991502055709689</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="9">
         <v>52.621967417462798</v>
       </c>
-      <c r="B58">
+      <c r="B59" s="10">
         <v>3570.27857530455</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <f t="shared" si="1"/>
         <v>1.7211670813508761</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="9">
         <v>55.242452368013502</v>
       </c>
-      <c r="B59">
+      <c r="B60" s="10">
         <v>3569.8454194862402</v>
       </c>
-      <c r="C59">
+      <c r="C60">
         <f t="shared" si="1"/>
         <v>1.7422729498894907</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="9">
         <v>57.882205590259503</v>
       </c>
-      <c r="B60">
+      <c r="B61" s="10">
         <v>3569.6171208902401</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <f t="shared" si="1"/>
         <v>1.7625450714696151</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="9">
         <v>60.5026905408102</v>
       </c>
-      <c r="B61">
+      <c r="B62" s="10">
         <v>3569.3889921592699</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <f t="shared" si="1"/>
         <v>1.781774688058182</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="9">
         <v>63.1424437630562</v>
       </c>
-      <c r="B62">
+      <c r="B63" s="10">
         <v>3569.1606935632599</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <f t="shared" si="1"/>
         <v>1.8003213861129368</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="9">
         <v>65.782196985302093</v>
       </c>
-      <c r="B63">
+      <c r="B64" s="10">
         <v>3569.1374220545899</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <f t="shared" si="1"/>
         <v>1.8181083738997561</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="9">
         <v>68.402681935852897</v>
       </c>
-      <c r="B64">
+      <c r="B65" s="10">
         <v>3568.9092933236202</v>
       </c>
-      <c r="C64">
+      <c r="C65">
         <f t="shared" si="1"/>
         <v>1.8350731298942047</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="9">
         <v>71.061703429794093</v>
       </c>
-      <c r="B65">
+      <c r="B66" s="10">
         <v>3568.4757977752602</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <f t="shared" si="1"/>
         <v>1.8516356138104018</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="9">
         <v>73.643651836954305</v>
       </c>
-      <c r="B66">
+      <c r="B67" s="10">
         <v>3568.0429816870101</v>
       </c>
-      <c r="C66">
+      <c r="C67">
         <f t="shared" si="1"/>
         <v>1.8671353161344602</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="9">
         <v>76.302673330895502</v>
       </c>
-      <c r="B67">
+      <c r="B68" s="10">
         <v>3567.8145132259801</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <f t="shared" si="1"/>
         <v>1.882539754108451</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="9">
         <v>78.961694824836698</v>
       </c>
-      <c r="B68">
+      <c r="B69" s="10">
         <v>3568.2011260269401</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <f t="shared" si="1"/>
         <v>1.8974164614089846</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="9">
         <v>81.582179775387502</v>
       </c>
-      <c r="B69">
+      <c r="B70" s="10">
         <v>3567.5629431213101</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <f t="shared" si="1"/>
         <v>1.9115953049498868</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="9">
         <v>84.241201269328698</v>
       </c>
-      <c r="B70">
+      <c r="B71" s="10">
         <v>3567.74452883494</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <f t="shared" si="1"/>
         <v>1.9255245512083061</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="9">
         <v>86.823149676488896</v>
       </c>
-      <c r="B71">
+      <c r="B72" s="10">
         <v>3567.51673983402</v>
       </c>
-      <c r="C71">
+      <c r="C72">
         <f t="shared" si="1"/>
         <v>1.9386355366548031</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="9">
         <v>89.4436346270397</v>
       </c>
-      <c r="B72">
+      <c r="B73" s="10">
         <v>3567.4936381903799</v>
       </c>
-      <c r="C72">
+      <c r="C73">
         <f t="shared" si="1"/>
         <v>1.9515494388696601</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="9">
         <v>92.0833878492856</v>
       </c>
-      <c r="B73">
+      <c r="B74" s="10">
         <v>3566.8552854197101</v>
       </c>
-      <c r="C73">
+      <c r="C74">
         <f t="shared" si="1"/>
         <v>1.9641812890881136</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="9">
         <v>94.742409343226797</v>
       </c>
-      <c r="B74">
+      <c r="B75" s="10">
         <v>3566.8318440460198</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <f t="shared" si="1"/>
         <v>1.9765444248416268</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="9">
         <v>97.382162565472797</v>
       </c>
-      <c r="B75">
+      <c r="B76" s="10">
         <v>3566.8085725373498</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <f t="shared" si="1"/>
         <v>1.9884794146935807</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="9">
         <v>100.002647516023</v>
       </c>
-      <c r="B76">
+      <c r="B77" s="10">
         <v>3566.7854708937002</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <f t="shared" si="1"/>
         <v>2.0000114978637922</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="9">
         <v>102.642400738269</v>
       </c>
-      <c r="B77">
+      <c r="B78" s="10">
         <v>3566.5571722977002</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <f t="shared" si="1"/>
         <v>2.011326801348063</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="9">
         <v>105.24361741712499</v>
       </c>
-      <c r="B78">
+      <c r="B79" s="10">
         <v>3565.71413216976</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <f t="shared" si="1"/>
         <v>2.0221957671720872</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:A76">
-    <sortCondition ref="A12:A76"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:A77">
+    <sortCondition ref="A13:A77"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
